--- a/sobaya_list.xlsx
+++ b/sobaya_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\surfacepro2018\Documents\python_soba\streamlit_sharing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\surfacepro2018\Documents\python_soba\sharing_streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA661C3-ED7B-4EC1-B5C3-0DBDE60103B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D790DFF6-CDD7-4F43-9857-9E6D132A8088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" xr2:uid="{0EDA8495-41B4-416F-A4E7-DA4863140DB0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="145">
   <si>
     <t>緯度</t>
     <rPh sb="0" eb="2">
@@ -865,6 +865,19 @@
   </si>
   <si>
     <t>箱根暁庵 箱根湯本店</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>藪蕎麦　玉川高島屋店</t>
+    <rPh sb="0" eb="3">
+      <t>ヤブソバ</t>
+    </rPh>
+    <rPh sb="4" eb="9">
+      <t>タマガワタカシマヤ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>テン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1229,11 +1242,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22BC5988-34B5-4094-921D-947878CF9E06}">
-  <dimension ref="A1:E112"/>
+  <dimension ref="A1:E113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F112" sqref="F112"/>
+      <selection pane="bottomLeft" activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -3147,6 +3160,23 @@
         <v>33</v>
       </c>
     </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A113">
+        <v>35.6141329260712</v>
+      </c>
+      <c r="B113">
+        <v>139.626538810385</v>
+      </c>
+      <c r="C113" t="s">
+        <v>144</v>
+      </c>
+      <c r="D113" t="s">
+        <v>7</v>
+      </c>
+      <c r="E113" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
